--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st07.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st07.xlsx
@@ -5848,7 +5848,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="무스"]그런데 이 괴수는 하늘을 날 수 있었고, 비닐은 칼과 총알도 꿰뚫을 수 없을 만큼 단단한데다가, 입에선 불을 내뿜을 정도로 무시무시해서, 두 사람은 괴수에게 흠집 하나 낼 수 없었대요.
+    <t xml:space="preserve">[name="무스"]그런데 이 괴수는 하늘을 날 수 있었고, 비늘은 칼과 총알도 꿰뚫을 수 없을 만큼 단단한데다가, 입에선 불을 내뿜을 정도로 무시무시해서, 두 사람은 괴수에게 흠집 하나 낼 수 없었대요.
 </t>
   </si>
   <si>
@@ -6096,7 +6096,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="무스"]응응, 힘내 포푸카!
+    <t xml:space="preserve">[name="무스"]응응, 포푸카 화이팅!
 </t>
   </si>
   <si>
@@ -6220,7 +6220,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="포푸카"]아아아…… 앞에 완전히 잘못 얘기했네…… 어떡하지…….
+    <t xml:space="preserve">[name="포푸카"]아아아…… 앞에 완전히 잘못 얘기했네…… 어떡하지……
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st07.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st07.xlsx
@@ -3536,7 +3536,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]“Dusk Beauty Flying to the Moon”.
+    <t xml:space="preserve">[name="Suzuran"]'Dusk Beauty Flying to the Moon'.
 </t>
   </si>
   <si>
@@ -3544,7 +3544,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]“Once upon a time, there was a gentle and kind girl named Dusk Beauty who lived in Yen——”
+    <t xml:space="preserve">[name="Suzuran"]'Once upon a time, there was a gentle and kind girl named Dusk Beauty who lived in Yen——'
 </t>
   </si>
   <si>
@@ -3564,7 +3564,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]“——To commemorate the distant Dusk Beauty, on the same day every year, people would offer up her favorite food. As time passed, this day became an important festival in Yen.”  
+    <t xml:space="preserve">[name="Suzuran"]'——To commemorate the distant Dusk Beauty, on the same day every year, people would offer up her favorite food. As time passed, this day became an important festival in Yen.'  
 </t>
   </si>
   <si>
@@ -3688,11 +3688,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]“Child, you have a pair of sharp eyes that can see thousands of miles away. Why not ascend the mountain to the west?” 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]“From there you can gaze upon the wide earth. Only there will you have a chance to find your husband.” 
+    <t xml:space="preserve">[name="Suzuran"]'Child, you have a pair of sharp eyes that can see thousands of miles away. Why not ascend the mountain to the west?' 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]'From there you can gaze upon the wide earth. Only there will you have a chance to find your husband.' 
 </t>
   </si>
   <si>
@@ -3708,7 +3708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]The meaning of Mount Sky is “a mountain as tall as the skies”. There is no mountain taller than it in all of Yen. 
+    <t xml:space="preserve">[name="Suzuran"]The meaning of Mount Sky is 'a mountain as tall as the skies'. There is no mountain taller than it in all of Yen. 
 </t>
   </si>
   <si>
@@ -3744,7 +3744,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]“Lofty heights of Mount Sky, lie yet dwarfed by the twin moons. Ascend thee to the moons, and thy husband shall thee find soon.” 
+    <t xml:space="preserve">[name="Suzuran"]'Lofty heights of Mount Sky, lie yet dwarfed by the twin moons. Ascend thee to the moons, and thy husband shall thee find soon.' 
 </t>
   </si>
   <si>
@@ -3916,7 +3916,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]“As long as you can bring me one treasure, I will become your wife.” 
+    <t xml:space="preserve">[name="Suzuran"]'As long as you can bring me one treasure, I will become your wife.' 
 </t>
   </si>
   <si>
@@ -3960,7 +3960,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mousse"]“As long as you can bring me one treasure, I will become your wife.” 
+    <t xml:space="preserve">[name="Mousse"]'As long as you can bring me one treasure, I will become your wife.' 
 </t>
   </si>
   <si>
@@ -4212,7 +4212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mousse"]“With the guidance of the divine light, both will have bright futures.” 
+    <t xml:space="preserve">[name="Mousse"]'With the guidance of the divine light, both will have bright futures.' 
 </t>
   </si>
   <si>
@@ -5132,11 +5132,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스즈란"]음…
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="스즈란"]옛날 옛적에, 염국에는 석아라는 이름을 가진 마음씨 따뜻한 여자아이가 있었습니다……
+    <t xml:space="preserve">[name="스즈란"]음… 석아라는 글자는 염국식으로는 '시어'라고 읽는대요. 석아분월은 달로 간 시어라는 뜻이죠. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="스즈란"]옛날 옛적에, 염국에는 시어라는 이름을 가진 마음씨 따뜻한 여자아이가 있었습니다……
 </t>
   </si>
   <si>
@@ -5156,7 +5156,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스즈란"]……사람들은 떠나버린 석아를 기억하기 위해, 매년 이날에 그녀가 가장 좋아하는 음식을 차려놓고 그녀를 기렸습니다. 그렇게 오랜 시간이 지나, 이날은 이곳의 중요한 기념일이 되었습니다……
+    <t xml:space="preserve">[name="스즈란"]……사람들은 떠나버린 시어를 기억하기 위해, 매년 이날에 그녀가 가장 좋아하는 음식을 차려놓고 그녀를 기렸습니다. 그렇게 오랜 시간이 지나, 이날은 이곳의 중요한 기념일이 되었습니다……
 </t>
   </si>
   <si>
@@ -5244,15 +5244,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스즈란"]이건 염국의 신화 이야기인데, 주인공은 석아라는 이름을 가진 언니에요.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="스즈란"]석아는 원래 남편과 함께 행복하게 살고 있었어요.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="스즈란"]하지만 어느 날, 석아의 남편이 실종되었어요.
+    <t xml:space="preserve">[name="스즈란"]이건 염국의 신화 이야기인데, 주인공은 시어라는 이름을 가진 언니에요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="스즈란"]시어는 원래 남편과 함께 행복하게 살고 있었어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="스즈란"]하지만 어느 날, 시어의 남편이 실종되었어요.
 </t>
   </si>
   <si>
@@ -5260,15 +5260,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스즈란"]네, 책에서는 석아가 곳곳을 돌아다니며 남편의 행방을 찾는다고 나오는데, 남편의 행방을 아는 사람은 아무도 없었대요.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="스즈란"]어떻게 할 방법이 없었던 석아는 그대로 집에 돌아올 수밖에 없었고, 남편이 직접 심은 버드나무 아래에서 두 손으로 얼굴을 가리고 펑펑 울었어요.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="스즈란"]이때, 지혜로운 마을의 어느 어르신 한 분이, 석아가 펑펑 우는 것을 보고는 좋은 방법을 알려줬어요.
+    <t xml:space="preserve">[name="스즈란"]네, 책에서는 시어가 곳곳을 돌아다니며 남편의 행방을 찾는다고 나오는데, 남편의 행방을 아는 사람은 아무도 없었대요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="스즈란"]어떻게 할 방법이 없었던 시어는 그대로 집에 돌아올 수밖에 없었고, 남편이 직접 심은 버드나무 아래에서 두 손으로 얼굴을 가리고 펑펑 울었어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="스즈란"]이때, 지혜로운 마을의 어느 어르신 한 분이, 시어가 펑펑 우는 것을 보고는 좋은 방법을 알려줬어요.
 </t>
   </si>
   <si>
@@ -5288,7 +5288,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스즈란"]석아는 어르신 말씀이 일리가 있다고 생각해서, 마을 사람들과 작별하고 대지의 끝자락인 고산으로 향했어요.
+    <t xml:space="preserve">[name="스즈란"]시어는 어르신 말씀이 일리가 있다고 생각해서, 마을 사람들과 작별하고 대지의 끝자락인 고산으로 향했어요.
 </t>
   </si>
   <si>
@@ -5304,11 +5304,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스즈란"]갖은 고난을 이겨내고 산봉우리에 도착한 석아는 온 세상을 널리 볼 수 있었지만, 3일 내내 눈이 새빨개지도록 찾아봐도 남편의 종적은 찾을 수 없었어요.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="스즈란"]수년간의 노력이 물거품이 되자 석아의 눈물은 쉴 새 없이 쏟아졌고, 눈물은 산맥을 따라 흘러 땅에 떨어져 강물이 되었다고 해요.
+    <t xml:space="preserve">[name="스즈란"]갖은 고난을 이겨내고 산봉우리에 도착한 시어는 온 세상을 널리 볼 수 있었지만, 3일 내내 눈이 새빨개지도록 찾아봐도 남편의 종적은 찾을 수 없었어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="스즈란"]수년간의 노력이 물거품이 되자 시어의 눈물은 쉴 새 없이 쏟아졌고, 눈물은 산맥을 따라 흘러 땅에 떨어져 강물이 되었다고 해요.
 </t>
   </si>
   <si>
@@ -5328,11 +5328,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스즈란"]자초지종을 알게 된 산신들은 더욱 의아해했어요. 그래서 산신들은 석아를 천악산의 신, '천악의 신' 앞에 데려가 이야기를 나누게 했죠.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="스즈란"]마음씨 좋은 천악의 신은 석아의 사정을 이해하고 가엾게 여겨 석아에게 이렇게 말했어요.
+    <t xml:space="preserve">[name="스즈란"]자초지종을 알게 된 산신들은 더욱 의아해했어요. 그래서 산신들은 시어를 천악산의 신, '천악의 신' 앞에 데려가 이야기를 나누게 했죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="스즈란"]마음씨 좋은 천악의 신은 시어의 사정을 이해하고 가엾게 여겨 시어에게 이렇게 말했어요.
 </t>
   </si>
   <si>
@@ -5356,7 +5356,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스즈란"]석아는 산신의 제안을 받아들여 도움을 청했어요. 머리를 맞대고 고민하던 산신들은 석아에게 방법을 하나 가르쳐 주었죠……
+    <t xml:space="preserve">[name="스즈란"]시어는 산신의 제안을 받아들여 도움을 청했어요. 머리를 맞대고 고민하던 산신들은 시어에게 방법을 하나 가르쳐 주었죠……
 </t>
   </si>
   <si>
@@ -5384,15 +5384,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스즈란"]그렇지만 어르신은 석아의 일을 떠올리고는, 모두에게 이것은 석아가 남편의 행방을 찾았다는 것이니 무서워할 게 아니라 오히려 축하해야 할 일이라고 말했죠.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="스즈란"]다들 어르신의 말이 일리가 있다고 생각해서, 집에서 음식과 술을 쉴 새 없이 꺼내와 마을을 떠난 석아를 축하했어요.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="스즈란"]그래서 해마다 다들 음식을 가지고 한데 모여 먹고 마셨고, 석아가 좋아하는 음식을 상에 올렸대요.
+    <t xml:space="preserve">[name="스즈란"]그렇지만 어르신은 시어의 일을 떠올리고는, 모두에게 이것은 시어가 남편의 행방을 찾았다는 것이니 무서워할 게 아니라 오히려 축하해야 할 일이라고 말했죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="스즈란"]다들 어르신의 말이 일리가 있다고 생각해서, 집에서 음식과 술을 쉴 새 없이 꺼내와 마을을 떠난 시어를 축하했어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="스즈란"]그래서 해마다 다들 음식을 가지고 한데 모여 먹고 마셨고, 시어가 좋아하는 음식을 상에 올렸대요.
 </t>
   </si>
   <si>
@@ -5404,7 +5404,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스즈란"]석아가 떠난 후에도 강물은 천악산에서 세차게 흘러내렸고, 현지 사람들은 석아의 이름을 따서 이 강물을 석강이라고 불렀대요.
+    <t xml:space="preserve">[name="스즈란"]시어가 떠난 후에도 강물은 천악산에서 세차게 흘러내렸고, 현지 사람들은 시어의 이름을 따서 이 강물을 석강이라고 불렀대요.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st07.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st07.xlsx
@@ -3256,7 +3256,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shamare"]You’re still hungry?
+    <t xml:space="preserve">[name="Shamare"]You're still hungry?
 </t>
   </si>
   <si>
@@ -3264,7 +3264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shamare"]Today is a holiday, everyone’s having fun.
+    <t xml:space="preserve">[name="Shamare"]Today is a holiday, everyone's having fun.
 </t>
   </si>
   <si>
@@ -3276,11 +3276,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shamare"]Can’t you eat those?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shamare"]Maybe you’re getting picky.
+    <t xml:space="preserve">[name="Shamare"]Can't you eat those?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shamare"]Maybe you're getting picky.
 </t>
   </si>
   <si>
@@ -3288,15 +3288,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shamare"]There would be food, friends, and all kinds of things we don’t usually get—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shamare"]You’re asking me if I’m happy?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shamare"]I... don’t understand.
+    <t xml:space="preserve">[name="Shamare"]There would be food, friends, and all kinds of things we don't usually get—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shamare"]You're asking me if I'm happy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shamare"]I... don't understand.
 </t>
   </si>
   <si>
@@ -3304,11 +3304,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shamare"]They’ve been so rich lately.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shamare"]I don’t understand some of them.
+    <t xml:space="preserve">[name="Shamare"]They've been so rich lately.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shamare"]I don't understand some of them.
 </t>
   </si>
   <si>
@@ -3332,7 +3332,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shamare"]Morte wouldn’t like these emotions.
+    <t xml:space="preserve">[name="Shamare"]Morte wouldn't like these emotions.
 </t>
   </si>
   <si>
@@ -3348,19 +3348,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shamare"]Okay, it’s not that bad.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shamare"]Get some apples for me, I’ll get the other materials.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shamare"]Go on, don’t let the stuffing in your tummy fall out.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shamare"]Don’t wave your knife around either. Doctor will get mad.
+    <t xml:space="preserve">[name="Shamare"]Okay, it's not that bad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shamare"]Get some apples for me, I'll get the other materials.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shamare"]Go on, don't let the stuffing in your tummy fall out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shamare"]Don't wave your knife around either. Doctor will get mad.
 </t>
   </si>
   <si>
@@ -3380,7 +3380,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shamare"]What’s wrong?
+    <t xml:space="preserve">[name="Shamare"]What's wrong?
 </t>
   </si>
   <si>
@@ -3400,7 +3400,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]I’m sorry!
+    <t xml:space="preserve">[name="Suzuran"]I'm sorry!
 </t>
   </si>
   <si>
@@ -3420,7 +3420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]Aah... that’s better~
+    <t xml:space="preserve">[name="Suzuran"]Aah... that's better~
 </t>
   </si>
   <si>
@@ -3428,7 +3428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shamare"]You’re back?
+    <t xml:space="preserve">[name="Shamare"]You're back?
 </t>
   </si>
   <si>
@@ -3464,7 +3464,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]It’s sweet!
+    <t xml:space="preserve">[name="Suzuran"]It's sweet!
 </t>
   </si>
   <si>
@@ -3472,7 +3472,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]It’s sweet and sour. The temperature is just right, a little cold but not cold enough to hurt my teeth.
+    <t xml:space="preserve">[name="Suzuran"]It's sweet and sour. The temperature is just right, a little cold but not cold enough to hurt my teeth.
 </t>
   </si>
   <si>
@@ -3504,7 +3504,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]Shamare, aren’t you eating?
+    <t xml:space="preserve">[name="Suzuran"]Shamare, aren't you eating?
 </t>
   </si>
   <si>
@@ -3516,11 +3516,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]I won’t bother you then.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]I’ll be reading here.
+    <t xml:space="preserve">[name="Suzuran"]I won't bother you then.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]I'll be reading here.
 </t>
   </si>
   <si>
@@ -3568,11 +3568,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]So that’s where it comes from—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]So that’s where it comes from—
+    <t xml:space="preserve">[name="Suzuran"]So that's where it comes from—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]So that's where it comes from—
 </t>
   </si>
   <si>
@@ -3588,15 +3588,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]Why are you all here and not at the banquet? There’s a lot of delicious food from Yen there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Popukar"]I’m already full. I saw Suzuran telling stories on my way back to the dorm, so I came over to listen. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mousse"]I also came to hear the story! And also, um, to look after the kitties. They’re getting rambunctious. 
+    <t xml:space="preserve">[name="Suzuran"]Why are you all here and not at the banquet? There's a lot of delicious food from Yen there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Popukar"]I'm already full. I saw Suzuran telling stories on my way back to the dorm, so I came over to listen. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mousse"]I also came to hear the story! And also, um, to look after the kitties. They're getting rambunctious. 
 </t>
   </si>
   <si>
@@ -3604,7 +3604,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mousse"]They’re over there...
+    <t xml:space="preserve">[name="Mousse"]They're over there...
 </t>
   </si>
   <si>
@@ -3612,7 +3612,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]Ah, it’s true!
+    <t xml:space="preserve">[name="Suzuran"]Ah, it's true!
 </t>
   </si>
   <si>
@@ -3628,7 +3628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Popukar"](Tugs on Suzuran’s sleeve).
+    <t xml:space="preserve">[name="Popukar"](Tugs on Suzuran's sleeve).
 </t>
   </si>
   <si>
@@ -3648,7 +3648,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]Um, it might take a long time to read the whole thing again, so I’ll summarize.
+    <t xml:space="preserve">[name="Suzuran"]Um, it might take a long time to read the whole thing again, so I'll summarize.
 </t>
   </si>
   <si>
@@ -3696,11 +3696,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]Dusk Beauty agreed with the wise elder’s suggestion, and decided to leave the town and head to the mountain at the edge of the land.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]This mountain, the tallest of them all, was called Mount T’ien by the people of Yen.
+    <t xml:space="preserve">[name="Suzuran"]Dusk Beauty agreed with the wise elder's suggestion, and decided to leave the town and head to the mountain at the edge of the land.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]This mountain, the tallest of them all, was called Mount T'ien by the people of Yen.
 </t>
   </si>
   <si>
@@ -3708,7 +3708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]The meaning of Mount Sky is 'a mountain as tall as the skies'. There is no mountain taller than it in all of Yen. 
+    <t xml:space="preserve">[name="Suzuran"]The meaning of Mount Sky is 'a mountain as tall as the skies.' There is no mountain taller than it in all of Yen. 
 </t>
   </si>
   <si>
@@ -3732,7 +3732,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]The surging tears shocked the gods within the mountains. They couldn’t believe the river which had appeared out of nowhere.
+    <t xml:space="preserve">[name="Suzuran"]The surging tears shocked the gods within the mountains. They couldn't believe the river which had appeared out of nowhere.
 </t>
   </si>
   <si>
@@ -3740,7 +3740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]The kind god listened to Dusk Beauty’s story and pitied her. Thus, the god of Mount Sky said:
+    <t xml:space="preserve">[name="Suzuran"]The kind god listened to Dusk Beauty's story and pitied her. Thus, the god of Mount Sky said:
 </t>
   </si>
   <si>
@@ -3752,7 +3752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]Oh, sorry. It’s sort of poetic and old-tymey, isn’t it? Let me explain.
+    <t xml:space="preserve">[name="Suzuran"]Oh, sorry. It's sort of poetic and old-tymey, isn't it? Let me explain.
 </t>
   </si>
   <si>
@@ -3764,7 +3764,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]Dusk Beauty accepted the mountain god’s suggestion, and asked for help. After the gods discussed it, they taught her a way...
+    <t xml:space="preserve">[name="Suzuran"]Dusk Beauty accepted the mountain god's suggestion, and asked for help. After the gods discussed it, they taught her a way...
 </t>
   </si>
   <si>
@@ -3820,11 +3820,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Popukar"]Is that why there’s so much yummy food today?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]That’s right.
+    <t xml:space="preserve">[name="Popukar"]Is that why there's so much yummy food today?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]That's right.
 </t>
   </si>
   <si>
@@ -3832,15 +3832,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]The shrines will be very busy today. Dad’s always swamped the whole day.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]Though the most lively shrine is always Miss Tsukinogi’s shrine. They say the god of her shrine is the chief god, so they have a huge festival, with a lot of people.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]People from all over Higashi travel to Miss Tsukinogi’s shrine.
+    <t xml:space="preserve">[name="Suzuran"]The shrines will be very busy today. Dad's always swamped the whole day.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]Though the most lively shrine is always Miss Tsukinogi's shrine. They say the god of her shrine is the chief god, so they have a huge festival, with a lot of people.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]People from all over Higashi travel to Miss Tsukinogi's shrine.
 </t>
   </si>
   <si>
@@ -3852,7 +3852,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]Well, it’s not really a story, it’s actually part of the liturgy. Dad’s always reciting it during the ceremonies, he even has to dance along with the music at the same time. It’s really fun.
+    <t xml:space="preserve">[name="Suzuran"]Well, it's not really a story, it's actually part of the liturgy. Dad's always reciting it during the ceremonies, he even has to dance along with the music at the same time. It's really fun.
 </t>
   </si>
   <si>
@@ -3864,7 +3864,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]The woman handed a jeweled pot to the old man. When he opened it, there were more gold and riches than he’d ever seen in his whole life.
+    <t xml:space="preserve">[name="Suzuran"]The woman handed a jeweled pot to the old man. When he opened it, there were more gold and riches than he'd ever seen in his whole life.
 </t>
   </si>
   <si>
@@ -3900,15 +3900,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]Now... It’s hard to say.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]At least, Dad and Mom didn’t get married like that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]Mmm, let’s continue.
+    <t xml:space="preserve">[name="Suzuran"]Now... It's hard to say.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]At least, Dad and Mom didn't get married like that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]Mmm, let's continue.
 </t>
   </si>
   <si>
@@ -3924,7 +3924,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]But even the important people from the capital couldn’t do it.
+    <t xml:space="preserve">[name="Suzuran"]But even the important people from the capital couldn't do it.
 </t>
   </si>
   <si>
@@ -3952,11 +3952,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]But he couldn’t convince his brothers and so he set out with them to travel to the old man’s house.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]Unexpectedly, the woman didn’t turn them away, and instead gave them her requests.
+    <t xml:space="preserve">[name="Suzuran"]But he couldn't convince his brothers and so he set out with them to travel to the old man's house.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]Unexpectedly, the woman didn't turn them away, and instead gave them her requests.
 </t>
   </si>
   <si>
@@ -3984,7 +3984,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]Leaving the old man’s house, the two brothers found the requests extraordinarily difficult and impossible to complete.
+    <t xml:space="preserve">[name="Suzuran"]Leaving the old man's house, the two brothers found the requests extraordinarily difficult and impossible to complete.
 </t>
   </si>
   <si>
@@ -4064,7 +4064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Popukar"]They’re brothers, why did they end up fighting each other?!
+    <t xml:space="preserve">[name="Popukar"]They're brothers, why did they end up fighting each other?!
 </t>
   </si>
   <si>
@@ -4100,11 +4100,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]As for why the people of Higashi like this story so much, I’m not really sure either.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mousse"]The third brother and the sky woman don’t come up again?
+    <t xml:space="preserve">[name="Suzuran"]As for why the people of Higashi like this story so much, I'm not really sure either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mousse"]The third brother and the sky woman don't come up again?
 </t>
   </si>
   <si>
@@ -4116,7 +4116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]One says that after the village was destroyed, someone tried looking for the riches in the old man’s house, but he found only bones.
+    <t xml:space="preserve">[name="Suzuran"]One says that after the village was destroyed, someone tried looking for the riches in the old man's house, but he found only bones.
 </t>
   </si>
   <si>
@@ -4124,7 +4124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]Another version is that this was a trickster fairy, and it wasn’t the first tragedy she caused, and it wouldn’t be the last.
+    <t xml:space="preserve">[name="Suzuran"]Another version is that this was a trickster fairy, and it wasn't the first tragedy she caused, and it wouldn't be the last.
 </t>
   </si>
   <si>
@@ -4168,7 +4168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]I don’t know many either...
+    <t xml:space="preserve">[name="Suzuran"]I don't know many either...
 </t>
   </si>
   <si>
@@ -4180,7 +4180,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Popukar"]I hope it’s a happy story where no one dies this time.
+    <t xml:space="preserve">[name="Popukar"]I hope it's a happy story where no one dies this time.
 </t>
   </si>
   <si>
@@ -4236,7 +4236,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"](Miss Mousse has a very different way of speaking when she’s telling a story.) 
+    <t xml:space="preserve">[name="Suzuran"](Miss Mousse has a very different way of speaking when she's telling a story.) 
 </t>
   </si>
   <si>
@@ -4264,7 +4264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mousse"]But they were able to use the monster’s greed against it, luring it into its own nest.
+    <t xml:space="preserve">[name="Mousse"]But they were able to use the monster's greed against it, luring it into its own nest.
 </t>
   </si>
   <si>
@@ -4280,7 +4280,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mousse"]She needed the Divine Originium to save her father’s life.
+    <t xml:space="preserve">[name="Mousse"]She needed the Divine Originium to save her father's life.
 </t>
   </si>
   <si>
@@ -4296,7 +4296,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mousse"]But when faced with treasure that dwarfed even his country’s wealth, the brother changed his mind.
+    <t xml:space="preserve">[name="Mousse"]But when faced with treasure that dwarfed even his country's wealth, the brother changed his mind.
 </t>
   </si>
   <si>
@@ -4312,7 +4312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mousse"]She searched through the entire cave and even worked up the courage to ask the monster of her brother’s whereabouts, but the monster merely grinned and said nothing.
+    <t xml:space="preserve">[name="Mousse"]She searched through the entire cave and even worked up the courage to ask the monster of her brother's whereabouts, but the monster merely grinned and said nothing.
 </t>
   </si>
   <si>
@@ -4320,11 +4320,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]Calm down, Popukar! It’s just a story!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mousse"]Standing on the mountain peak and looking at the two royals in the distance, the monster let out a roar of satisfaction. The Originium crystals on its body shined a divine light that flickered along with the monster’s every breath.
+    <t xml:space="preserve">[name="Suzuran"]Calm down, Popukar! It's just a story!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mousse"]Standing on the mountain peak and looking at the two royals in the distance, the monster let out a roar of satisfaction. The Originium crystals on its body shined a divine light that flickered along with the monster's every breath.
 </t>
   </si>
   <si>
@@ -4340,7 +4340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mousse"]The country’s knights banded together and killed the monstrous king. The princess was also charged and sent to the gallows.
+    <t xml:space="preserve">[name="Mousse"]The country's knights banded together and killed the monstrous king. The princess was also charged and sent to the gallows.
 </t>
   </si>
   <si>
@@ -4368,11 +4368,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mousse"]With the wealth he took from the monster’s cave, he had become a noble in another land, and lived out his days in luxury.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Popukar"]That’s unfair!
+    <t xml:space="preserve">[name="Mousse"]With the wealth he took from the monster's cave, he had become a noble in another land, and lived out his days in luxury.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Popukar"]That's unfair!
 </t>
   </si>
   <si>
@@ -4432,7 +4432,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]So that’s where the Moonshadow came from.
+    <t xml:space="preserve">[name="Suzuran"]So that's where the Moonshadow came from.
 </t>
   </si>
   <si>
@@ -4528,7 +4528,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"](Whisper) Let’s just listen for now.
+    <t xml:space="preserve">[name="Suzuran"](Whisper) Let's just listen for now.
 </t>
   </si>
   <si>
@@ -4548,7 +4548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Popukar"]Lots of people brought their daughters to him, but he didn’t like any of them.
+    <t xml:space="preserve">[name="Popukar"]Lots of people brought their daughters to him, but he didn't like any of them.
 </t>
   </si>
   <si>
@@ -4560,7 +4560,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Popukar"]Since there wasn’t a bride for him anywhere in the whole world, he could just make one himself!
+    <t xml:space="preserve">[name="Popukar"]Since there wasn't a bride for him anywhere in the whole world, he could just make one himself!
 </t>
   </si>
   <si>
@@ -4572,7 +4572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Popukar"]He loved the Forte bride he made a super duper lot, and didn’t want anyone else to see her at all.
+    <t xml:space="preserve">[name="Popukar"]He loved the Forte bride he made a super duper lot, and didn't want anyone else to see her at all.
 </t>
   </si>
   <si>
@@ -4624,7 +4624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mousse"]It’s okay, I understood it all.
+    <t xml:space="preserve">[name="Mousse"]It's okay, I understood it all.
 </t>
   </si>
   <si>
@@ -4644,7 +4644,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Popukar"]But he always hid in the palace’s garden and never came out.
+    <t xml:space="preserve">[name="Popukar"]But he always hid in the palace's garden and never came out.
 </t>
   </si>
   <si>
@@ -4700,7 +4700,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Orchid"]Popukar, where are you? It’s bedtime! 
+    <t xml:space="preserve">[name="Orchid"]Popukar, where are you? It's bedtime! 
 </t>
   </si>
   <si>
@@ -4712,7 +4712,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Popukar"]I’ll see you again later.
+    <t xml:space="preserve">[name="Popukar"]I'll see you again later.
 </t>
   </si>
   <si>
@@ -4720,11 +4720,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mousse"]I’m feeling sleepy too...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mousse"]Kitties, lets go. Let’s not bother Shamare anymore.
+    <t xml:space="preserve">[name="Mousse"]I'm feeling sleepy too...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mousse"]Kitties, lets go. Let's not bother Shamare anymore.
 </t>
   </si>
   <si>
@@ -4744,15 +4744,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]Dad will cry if I’m not in bed by ten.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]Even though Dad isn’t here...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]Aren’t you going home, Shamare? It’s already very late. 
+    <t xml:space="preserve">[name="Suzuran"]Dad will cry if I'm not in bed by ten.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]Even though Dad isn't here...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]Aren't you going home, Shamare? It's already very late. 
 </t>
   </si>
   <si>
@@ -4788,7 +4788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shamare"]There’s the symbol.
+    <t xml:space="preserve">[name="Shamare"]There's the symbol.
 </t>
   </si>
   <si>
@@ -4796,11 +4796,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shamare"]The symbol is imprinted and we’re done.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shamare"]Let’s go home.
+    <t xml:space="preserve">[name="Shamare"]The symbol is imprinted and we're done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shamare"]Let's go home.
 </t>
   </si>
   <si>
@@ -4808,7 +4808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shamare"]Let’s give the book back to Suzuran.
+    <t xml:space="preserve">[name="Shamare"]Let's give the book back to Suzuran.
 </t>
   </si>
   <si>
@@ -4816,11 +4816,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shamare"]That’s not like you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shamare"]You’re asking why all the stories end like that?
+    <t xml:space="preserve">[name="Shamare"]That's not like you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shamare"]You're asking why all the stories end like that?
 </t>
   </si>
   <si>
